--- a/Homework/HW7/pic/7.5.xlsx
+++ b/Homework/HW7/pic/7.5.xlsx
@@ -253,9 +253,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -269,6 +266,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -578,7 +578,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:V9"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -612,581 +612,581 @@
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3">
+      <c r="B1" s="8">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8">
         <v>4</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8">
         <v>5</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3">
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8">
         <v>6</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3">
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8">
         <v>7</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="5">
-        <v>1</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="7">
-        <v>1</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="7">
-        <v>1</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="V3" s="5">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="6">
+        <v>1</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
         <v>15</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
         <v>15</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
         <v>15</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
         <v>15</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="7">
-        <v>1</v>
-      </c>
-      <c r="T4" s="5">
+      <c r="S4" s="6">
+        <v>1</v>
+      </c>
+      <c r="T4" s="4">
         <v>15</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
         <v>2</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
         <v>2</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
         <v>2</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="5">
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
         <v>2</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="7">
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6">
         <v>2</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="7">
-        <v>1</v>
-      </c>
-      <c r="T5" s="5">
+      <c r="S5" s="6">
+        <v>1</v>
+      </c>
+      <c r="T5" s="4">
         <v>2</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
         <v>12</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>11</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>11</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>11</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>11</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5">
-        <v>11</v>
-      </c>
-      <c r="O6" s="5" t="s">
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>11</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>11</v>
-      </c>
-      <c r="R6" s="7" t="s">
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>11</v>
+      </c>
+      <c r="R6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="7">
-        <v>1</v>
-      </c>
-      <c r="T6" s="5">
-        <v>11</v>
-      </c>
-      <c r="U6" s="5" t="s">
+      <c r="S6" s="6">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4">
+        <v>11</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>10</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>10</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>10</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>10</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="5">
-        <v>10</v>
-      </c>
-      <c r="O7" s="5" t="s">
+      <c r="M7" s="6">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
+        <v>10</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>10</v>
-      </c>
-      <c r="R7" s="7" t="s">
+      <c r="P7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>10</v>
+      </c>
+      <c r="R7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="7">
-        <v>1</v>
-      </c>
-      <c r="T7" s="5">
-        <v>10</v>
-      </c>
-      <c r="U7" s="5" t="s">
+      <c r="S7" s="6">
+        <v>1</v>
+      </c>
+      <c r="T7" s="4">
+        <v>10</v>
+      </c>
+      <c r="U7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
         <v>6</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
         <v>6</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="5">
-        <v>1</v>
-      </c>
-      <c r="K8" s="7">
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6">
         <v>6</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="5">
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4">
         <v>6</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P8" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="7">
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="6">
         <v>6</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="R8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="7">
-        <v>1</v>
-      </c>
-      <c r="T8" s="5">
+      <c r="S8" s="6">
+        <v>1</v>
+      </c>
+      <c r="T8" s="4">
         <v>6</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="U8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
         <v>16</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
         <v>16</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5">
-        <v>15</v>
-      </c>
-      <c r="O9" s="5" t="s">
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>14</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>15</v>
-      </c>
-      <c r="R9" s="7" t="s">
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>14</v>
+      </c>
+      <c r="R9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="7">
-        <v>0</v>
-      </c>
-      <c r="T9" s="5">
-        <v>15</v>
-      </c>
-      <c r="U9" s="5" t="s">
+      <c r="S9" s="6">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <v>14</v>
+      </c>
+      <c r="U9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="4">
         <v>1</v>
       </c>
     </row>
